--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\OnlineTraining9\Sai\Java Fsd 12 th 2023 Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D402BFD2-960C-4961-AD9A-A9B15F38B007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F96C56-5E57-4603-8E67-C5F3D17A2548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\OnlineTraining9\Sai\Java Fsd 12 th 2023 Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F96C56-5E57-4603-8E67-C5F3D17A2548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E433AF-F7E9-48C6-A903-D0090C90DCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Concepts</t>
   </si>
@@ -173,6 +173,15 @@
   </si>
   <si>
     <t>Java Installation,eclipse</t>
+  </si>
+  <si>
+    <t>Identifiers,variables,datatypes</t>
+  </si>
+  <si>
+    <t>9:50pm-10:40pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">work on assignments </t>
   </si>
 </sst>
 </file>
@@ -624,7 +633,7 @@
   <dimension ref="A3:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -706,9 +715,15 @@
       <c r="D7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="5"/>
+      <c r="E7" s="4">
+        <v>45274</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
@@ -719,7 +734,9 @@
       <c r="E8" s="4"/>
       <c r="F8" s="3"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.3">

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\OnlineTraining9\Sai\Java Fsd 12 th 2023 Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E433AF-F7E9-48C6-A903-D0090C90DCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A3C402-2EF9-45CE-AECE-A5101108FD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>Concepts</t>
   </si>
@@ -181,7 +181,10 @@
     <t>9:50pm-10:40pm</t>
   </si>
   <si>
-    <t xml:space="preserve">work on assignments </t>
+    <t xml:space="preserve">instance and static </t>
+  </si>
+  <si>
+    <t>work on assignments  day-1</t>
   </si>
 </sst>
 </file>
@@ -731,11 +734,17 @@
       <c r="D8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="5"/>
+      <c r="E8" s="4">
+        <v>45275</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="H8" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I8" s="3"/>
     </row>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\OnlineTraining9\Sai\Java Fsd 12 th 2023 Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A3C402-2EF9-45CE-AECE-A5101108FD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39ABBDDD-F622-4157-A34F-F4C0A4DF1FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>Concepts</t>
   </si>
@@ -43,33 +43,6 @@
     <t>Timings(IST)</t>
   </si>
   <si>
-    <t>https://github.com/GUPTHAM/JAVA-TRAINING.git</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIRIYALA ABHISHEK </t>
-  </si>
-  <si>
-    <t>https://github.com/Saminz123/AtibaFAtima.git</t>
-  </si>
-  <si>
-    <t>Atiba</t>
-  </si>
-  <si>
-    <t>Prem</t>
-  </si>
-  <si>
-    <t>https://github.com/premnarapogu/corejava-.git</t>
-  </si>
-  <si>
-    <t>arpita</t>
-  </si>
-  <si>
-    <t>https://github.com/asgitwork/MyJavaAssignment.git</t>
-  </si>
-  <si>
-    <t>susmitha</t>
-  </si>
-  <si>
     <t>http://www.maamu.itgo.com/other/javaquiz1.htm</t>
   </si>
   <si>
@@ -185,6 +158,24 @@
   </si>
   <si>
     <t>work on assignments  day-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JVM Architecture </t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>https://github.com/RB0896/Full_Stack</t>
+  </si>
+  <si>
+    <t>Gomanth Sainath</t>
+  </si>
+  <si>
+    <t>https://docs.oracle.com/javase/8/docs/api/</t>
+  </si>
+  <si>
+    <t>https://github.com/GomanthSainath/Assignment-Day1.git</t>
   </si>
 </sst>
 </file>
@@ -635,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -654,13 +645,13 @@
     <row r="3" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F3" s="13"/>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I3" s="8"/>
     </row>
     <row r="4" spans="4:9" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D4" s="11" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>1</v>
@@ -680,87 +671,95 @@
     </row>
     <row r="5" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D5" s="6" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E5" s="4">
         <v>45272</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="9" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D6" s="6" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E6" s="4">
         <v>45273</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D7" s="6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E7" s="4">
         <v>45274</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D8" s="6" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E8" s="4">
         <v>45275</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="E9" s="4">
+        <v>45278</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="H9" s="3"/>
-      <c r="I9" s="9"/>
+      <c r="I9" s="9" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D10" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="3"/>
@@ -770,7 +769,7 @@
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D11" s="6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="3"/>
@@ -780,7 +779,7 @@
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D12" s="6" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="3"/>
@@ -790,7 +789,7 @@
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D13" s="6" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="3"/>
@@ -800,7 +799,7 @@
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D14" s="6" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="3"/>
@@ -810,7 +809,7 @@
     </row>
     <row r="15" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D15" s="6" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="3"/>
@@ -820,7 +819,7 @@
     </row>
     <row r="16" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D16" s="6" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="3"/>
@@ -830,7 +829,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D17" s="6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="3"/>
@@ -840,7 +839,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D18" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="3"/>
@@ -851,7 +850,7 @@
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="D19" s="6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="3"/>
@@ -861,7 +860,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D20" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="3"/>
@@ -871,7 +870,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D21" s="6" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="3"/>
@@ -881,7 +880,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D22" s="6" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="3"/>
@@ -891,7 +890,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D23" s="6" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="3"/>
@@ -901,7 +900,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D24" s="6" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="3"/>
@@ -912,7 +911,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D25" s="6" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="3"/>
@@ -923,7 +922,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D26" s="6" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="3"/>
@@ -934,7 +933,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D27" s="6" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="3"/>
@@ -944,7 +943,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D28" s="6" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="3"/>
@@ -954,7 +953,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D29" s="6" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="3"/>
@@ -964,7 +963,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D30" s="6" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="3"/>
@@ -974,7 +973,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D31" s="6" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="3"/>
@@ -1991,9 +1990,10 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I5" r:id="rId1" xr:uid="{C438D4D9-FF94-4163-9A83-2CC81A380B4A}"/>
+    <hyperlink ref="I9" r:id="rId2" xr:uid="{64D4F9BF-372A-4548-B3FA-BC075981D704}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2002,7 +2002,7 @@
   <dimension ref="E7:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F10"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2013,47 +2013,33 @@
   <sheetData>
     <row r="7" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
       <c r="F11" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1" xr:uid="{B062A044-3CE2-4FA6-AC62-B9F3584D1E57}"/>
-    <hyperlink ref="F7" r:id="rId2" xr:uid="{25F889DF-3E96-4487-ABE1-3A63E39F2A6C}"/>
-    <hyperlink ref="F10" r:id="rId3" xr:uid="{D924C827-A1F7-40E0-A8FC-54F8C54F4834}"/>
+    <hyperlink ref="F7" r:id="rId1" xr:uid="{BA4D1F74-267E-4108-A3EC-6863B284671D}"/>
+    <hyperlink ref="F8" r:id="rId2" xr:uid="{19397755-44D9-4CAC-961A-54C61207C4B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\OnlineTraining9\Sai\Java Fsd 12 th 2023 Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39ABBDDD-F622-4157-A34F-F4C0A4DF1FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA5484C-94BB-4050-A3D1-10AFA287F353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>Concepts</t>
   </si>
@@ -176,6 +176,12 @@
   </si>
   <si>
     <t>https://github.com/GomanthSainath/Assignment-Day1.git</t>
+  </si>
+  <si>
+    <t>Dynamic data,eclipse,package,import,wrapper class</t>
+  </si>
+  <si>
+    <t>Scanner,revision of package and import in eclipse</t>
   </si>
 </sst>
 </file>
@@ -626,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -761,9 +767,15 @@
       <c r="D10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="5"/>
+      <c r="E10" s="4">
+        <v>45279</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
@@ -771,9 +783,15 @@
       <c r="D11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="5"/>
+      <c r="E11" s="4">
+        <v>45280</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\OnlineTraining9\Sai\Java Fsd 12 th 2023 Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA5484C-94BB-4050-A3D1-10AFA287F353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51FFA2F-02D4-4469-B081-B62EA2C2D220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>Concepts</t>
   </si>
@@ -182,6 +182,15 @@
   </si>
   <si>
     <t>Scanner,revision of package and import in eclipse</t>
+  </si>
+  <si>
+    <t>Methods ,instance,static methods</t>
+  </si>
+  <si>
+    <t>flow control statements</t>
+  </si>
+  <si>
+    <t>Work on Assignments(Flow Control Exercises,Core java Basics Task.docx)</t>
   </si>
 </sst>
 </file>
@@ -632,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:G11"/>
+    <sheetView tabSelected="1" topLeftCell="G5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -799,9 +808,15 @@
       <c r="D12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="5"/>
+      <c r="E12" s="4">
+        <v>45281</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="9"/>
     </row>
@@ -809,10 +824,18 @@
       <c r="D13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="3"/>
+      <c r="E13" s="4">
+        <v>45282</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.3">

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\OnlineTraining9\Sai\Java Fsd 12 th 2023 Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51FFA2F-02D4-4469-B081-B62EA2C2D220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC5292E-BBED-4BBE-965B-D2C427541059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
   <si>
     <t>Concepts</t>
   </si>
@@ -191,6 +191,12 @@
   </si>
   <si>
     <t>Work on Assignments(Flow Control Exercises,Core java Basics Task.docx)</t>
+  </si>
+  <si>
+    <t>OOPS Intro</t>
+  </si>
+  <si>
+    <t>Inheritance and different levels abstract methods and concrete methods intro</t>
   </si>
 </sst>
 </file>
@@ -641,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -842,9 +848,15 @@
       <c r="D14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="E14" s="4">
+        <v>45286</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
@@ -852,9 +864,15 @@
       <c r="D15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="E15" s="4">
+        <v>45287</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="H15" s="3"/>
       <c r="I15" s="9"/>
     </row>
@@ -2043,7 +2061,7 @@
   <dimension ref="E7:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\OnlineTraining9\Sai\Java Fsd 12 th 2023 Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC5292E-BBED-4BBE-965B-D2C427541059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62905123-B391-45F2-8E84-ED6D000F9388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>Concepts</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>Inheritance and different levels abstract methods and concrete methods intro</t>
+  </si>
+  <si>
+    <t>Abstract class,interface,class,methods</t>
   </si>
 </sst>
 </file>
@@ -648,7 +651,7 @@
   <dimension ref="A3:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:G15"/>
+      <selection activeCell="G15" sqref="G15:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -880,9 +883,15 @@
       <c r="D16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="E16" s="4">
+        <v>45288</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\OnlineTraining9\Sai\Java Fsd 12 th 2023 Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62905123-B391-45F2-8E84-ED6D000F9388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68B3A0E-D9C8-4404-8C1C-F9E29880F2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>Concepts</t>
   </si>
@@ -199,7 +199,19 @@
     <t>Inheritance and different levels abstract methods and concrete methods intro</t>
   </si>
   <si>
-    <t>Abstract class,interface,class,methods</t>
+    <t>Abstract class,interface,class,methods,MI</t>
+  </si>
+  <si>
+    <t>9:45Pm-10:45pm</t>
+  </si>
+  <si>
+    <t>Access modifiers,polymorphisam</t>
+  </si>
+  <si>
+    <t>this,super,constructor,final</t>
+  </si>
+  <si>
+    <t>OOPS Task</t>
   </si>
 </sst>
 </file>
@@ -650,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:G16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -899,10 +911,18 @@
       <c r="D17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="E17" s="4">
+        <v>45289</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -910,7 +930,9 @@
         <v>21</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\OnlineTraining9\Sai\Java Fsd 12 th 2023 Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68B3A0E-D9C8-4404-8C1C-F9E29880F2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94180860-AE3F-427E-8F42-3D6CBB9B8D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
   <si>
     <t>Concepts</t>
   </si>
@@ -205,13 +205,19 @@
     <t>9:45Pm-10:45pm</t>
   </si>
   <si>
-    <t>Access modifiers,polymorphisam</t>
-  </si>
-  <si>
-    <t>this,super,constructor,final</t>
-  </si>
-  <si>
     <t>OOPS Task</t>
+  </si>
+  <si>
+    <t>Access modifiers,polymorphisam(Overloading)</t>
+  </si>
+  <si>
+    <t>constructor,this,super</t>
+  </si>
+  <si>
+    <t>Overriding ,final</t>
+  </si>
+  <si>
+    <t>9:30Pm-10:25pm</t>
   </si>
 </sst>
 </file>
@@ -663,7 +669,7 @@
   <dimension ref="A3:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G19" activeCellId="1" sqref="G16 G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -915,13 +921,13 @@
         <v>45289</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>58</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I17" s="3"/>
     </row>
@@ -929,11 +935,15 @@
       <c r="D18" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="4"/>
+      <c r="E18" s="4">
+        <v>45293</v>
+      </c>
       <c r="F18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
@@ -942,9 +952,15 @@
       <c r="D19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="E19" s="4">
+        <v>45294</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\OnlineTraining9\Sai\Java Fsd 12 th 2023 Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94180860-AE3F-427E-8F42-3D6CBB9B8D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776732C3-688F-4995-8331-F93847C74F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
   <si>
     <t>Concepts</t>
   </si>
@@ -218,6 +218,21 @@
   </si>
   <si>
     <t>9:30Pm-10:25pm</t>
+  </si>
+  <si>
+    <t>Encapsulation</t>
+  </si>
+  <si>
+    <t>MCQ TEST</t>
+  </si>
+  <si>
+    <t>String tasks</t>
+  </si>
+  <si>
+    <t>String,StringBuffer,StringBuilder</t>
+  </si>
+  <si>
+    <t>Arrays</t>
   </si>
 </sst>
 </file>
@@ -668,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G19" activeCellId="1" sqref="G16 G19"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -968,9 +983,15 @@
       <c r="D20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="E20" s="4">
+        <v>45295</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
@@ -978,19 +999,33 @@
       <c r="D21" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="3"/>
+      <c r="E21" s="4">
+        <v>45296</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="5"/>
+      <c r="E22" s="4">
+        <v>45301</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\OnlineTraining9\Sai\Java Fsd 12 th 2023 Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776732C3-688F-4995-8331-F93847C74F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083C314C-93D3-4049-B132-9870FC39CA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -683,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="G4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1023,10 +1023,10 @@
       <c r="F22" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="5"/>
+      <c r="H22" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\OnlineTraining9\Sai\Java Fsd 12 th 2023 Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083C314C-93D3-4049-B132-9870FC39CA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF8EB52-E113-4A95-9A61-5A0F16A8D573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
   <si>
     <t>Concepts</t>
   </si>
@@ -233,6 +233,15 @@
   </si>
   <si>
     <t>Arrays</t>
+  </si>
+  <si>
+    <t>9:30Pm-10:55pm</t>
+  </si>
+  <si>
+    <t>MCQ Discussion Test</t>
+  </si>
+  <si>
+    <t>15/30</t>
   </si>
 </sst>
 </file>
@@ -683,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1006,7 +1015,7 @@
         <v>67</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>66</v>
@@ -1021,9 +1030,11 @@
         <v>45301</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" s="5"/>
+        <v>67</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="H22" s="3" t="s">
         <v>65</v>
       </c>
@@ -1033,9 +1044,15 @@
       <c r="D23" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="5"/>
+      <c r="E23" s="4">
+        <v>45302</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="H23" s="3"/>
       <c r="I23" s="9"/>
     </row>
@@ -1043,9 +1060,15 @@
       <c r="D24" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="5"/>
+      <c r="E24" s="4">
+        <v>45303</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="M24" s="8"/>
@@ -2140,10 +2163,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="E7:F11"/>
+  <dimension ref="E6:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2152,15 +2175,23 @@
     <col min="6" max="6" width="55.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>45</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
         <v>47</v>
       </c>
@@ -2168,13 +2199,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="5:7" x14ac:dyDescent="0.3">
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="5:7" x14ac:dyDescent="0.3">
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="5:7" x14ac:dyDescent="0.3">
       <c r="F11" s="8"/>
     </row>
   </sheetData>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\OnlineTraining9\Sai\Java Fsd 12 th 2023 Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF8EB52-E113-4A95-9A61-5A0F16A8D573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9114DC3-D9B4-4EC4-AF06-DBFD8D9643DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2136" yWindow="1452" windowWidth="17892" windowHeight="11064" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="74">
   <si>
     <t>Concepts</t>
   </si>
@@ -242,6 +242,12 @@
   </si>
   <si>
     <t>15/30</t>
+  </si>
+  <si>
+    <t>Exception Handling</t>
+  </si>
+  <si>
+    <t>Arrays Assignment.docx</t>
   </si>
 </sst>
 </file>
@@ -692,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1077,10 +1083,18 @@
       <c r="D25" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="3"/>
+      <c r="E25" s="4">
+        <v>45309</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="I25" s="3"/>
       <c r="M25" s="8"/>
     </row>
@@ -1088,9 +1102,15 @@
       <c r="D26" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="E26" s="4">
+        <v>45310</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="M26" s="8"/>
@@ -1101,7 +1121,9 @@
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="G27" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\OnlineTraining9\Sai\Java Fsd 12 th 2023 Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9114DC3-D9B4-4EC4-AF06-DBFD8D9643DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948273C4-16DE-415A-99AF-750DE6570575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2136" yWindow="1452" windowWidth="17892" windowHeight="11064" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="77">
   <si>
     <t>Concepts</t>
   </si>
@@ -248,6 +248,15 @@
   </si>
   <si>
     <t>Arrays Assignment.docx</t>
+  </si>
+  <si>
+    <t>Exception Handling Assignment Exceptions Task.docx</t>
+  </si>
+  <si>
+    <t>Overriding with exception handling,covarient return type</t>
+  </si>
+  <si>
+    <t>File IO</t>
   </si>
 </sst>
 </file>
@@ -698,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25:E26"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1119,21 +1128,33 @@
       <c r="D27" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="3"/>
+      <c r="E27" s="4">
+        <v>45313</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="G27" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H27" s="3"/>
+      <c r="H27" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D28" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="5"/>
+      <c r="E28" s="4">
+        <v>45314</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
@@ -1141,9 +1162,15 @@
       <c r="D29" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="5"/>
+      <c r="E29" s="4">
+        <v>45315</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
@@ -1151,7 +1178,9 @@
       <c r="D30" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="4"/>
+      <c r="E30" s="4">
+        <v>45316</v>
+      </c>
       <c r="F30" s="3"/>
       <c r="G30" s="5"/>
       <c r="H30" s="3"/>
@@ -1161,7 +1190,9 @@
       <c r="D31" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="4"/>
+      <c r="E31" s="4">
+        <v>45317</v>
+      </c>
       <c r="F31" s="3"/>
       <c r="G31" s="5"/>
       <c r="H31" s="3"/>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\OnlineTraining9\Sai\Java Fsd 12 th 2023 Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948273C4-16DE-415A-99AF-750DE6570575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBED0B0-4B29-4B6D-899D-3F994B7AB2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="81">
   <si>
     <t>Concepts</t>
   </si>
@@ -257,6 +257,18 @@
   </si>
   <si>
     <t>File IO</t>
+  </si>
+  <si>
+    <t>9:30Pm-10:40pm</t>
+  </si>
+  <si>
+    <t>Task to complete username and password validation with file</t>
+  </si>
+  <si>
+    <t>trainees were not available</t>
+  </si>
+  <si>
+    <t>Serialization and deserialization</t>
   </si>
 </sst>
 </file>
@@ -707,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1169,9 +1181,11 @@
         <v>76</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H29" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -1181,7 +1195,9 @@
       <c r="E30" s="4">
         <v>45316</v>
       </c>
-      <c r="F30" s="3"/>
+      <c r="F30" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="G30" s="5"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -1193,8 +1209,12 @@
       <c r="E31" s="4">
         <v>45317</v>
       </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="5"/>
+      <c r="F31" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\OnlineTraining9\Sai\Java Fsd 12 th 2023 Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBED0B0-4B29-4B6D-899D-3F994B7AB2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003620E0-C921-496F-ACE8-A9B60B5C7C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="84">
   <si>
     <t>Concepts</t>
   </si>
@@ -269,6 +269,15 @@
   </si>
   <si>
     <t>Serialization and deserialization</t>
+  </si>
+  <si>
+    <t>Day-28</t>
+  </si>
+  <si>
+    <t>collections</t>
+  </si>
+  <si>
+    <t>assignments on collections</t>
   </si>
 </sst>
 </file>
@@ -719,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1219,11 +1228,21 @@
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D32" s="6"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
+      <c r="D32" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="4">
+        <v>45320</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="I32" s="3"/>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.3">

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\OnlineTraining9\Sai\Java Fsd 12 th 2023 Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003620E0-C921-496F-ACE8-A9B60B5C7C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B329F2EB-B654-443A-A863-60C8A81B610F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="86">
   <si>
     <t>Concepts</t>
   </si>
@@ -274,10 +274,16 @@
     <t>Day-28</t>
   </si>
   <si>
-    <t>collections</t>
-  </si>
-  <si>
     <t>assignments on collections</t>
+  </si>
+  <si>
+    <t>Day-29</t>
+  </si>
+  <si>
+    <t>collections,arrays lmitations,list,set overview</t>
+  </si>
+  <si>
+    <t>collections List,Set and child classes LL,AL,V,S,HS,LHS,TS</t>
   </si>
 </sst>
 </file>
@@ -729,7 +735,7 @@
   <dimension ref="A3:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="G32" sqref="G32:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1235,22 +1241,30 @@
         <v>45320</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D33" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D33" s="6"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="3"/>
+      <c r="E33" s="4">
+        <v>45321</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.3">

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\OnlineTraining9\Sai\Java Fsd 12 th 2023 Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B329F2EB-B654-443A-A863-60C8A81B610F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBDDF96-C094-4407-A302-798D5B6DCD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="88">
   <si>
     <t>Concepts</t>
   </si>
@@ -284,6 +284,12 @@
   </si>
   <si>
     <t>collections List,Set and child classes LL,AL,V,S,HS,LHS,TS</t>
+  </si>
+  <si>
+    <t>Day-30</t>
+  </si>
+  <si>
+    <t>Map,Collection methods</t>
   </si>
 </sst>
 </file>
@@ -735,7 +741,7 @@
   <dimension ref="A3:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32:G33"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1268,10 +1274,18 @@
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D34" s="6"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="10"/>
+      <c r="D34" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="4">
+        <v>45322</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\OnlineTraining9\Sai\Java Fsd 12 th 2023 Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBDDF96-C094-4407-A302-798D5B6DCD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9353BD65-587F-45A3-9E7D-9EC54BFB3207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="95">
   <si>
     <t>Concepts</t>
   </si>
@@ -290,6 +290,27 @@
   </si>
   <si>
     <t>Map,Collection methods</t>
+  </si>
+  <si>
+    <t>Day-31</t>
+  </si>
+  <si>
+    <t>Day-32</t>
+  </si>
+  <si>
+    <t>Day-33</t>
+  </si>
+  <si>
+    <t>Map and methods</t>
+  </si>
+  <si>
+    <t>Case Study</t>
+  </si>
+  <si>
+    <t>Day-34</t>
+  </si>
+  <si>
+    <t>given case study requrements</t>
   </si>
 </sst>
 </file>
@@ -740,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="G28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1290,35 +1311,69 @@
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D35" s="6"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="10"/>
+      <c r="D35" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" s="4">
+        <v>45323</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D36" s="6"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="10"/>
+      <c r="D36" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="4">
+        <v>45327</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D37" s="6"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="10"/>
+      <c r="D37" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="4">
+        <v>45328</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D38" s="6"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="3"/>
+      <c r="D38" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" s="4">
+        <v>45329</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="I38" s="3"/>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.3">

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\OnlineTraining9\Sai\Java Fsd 12 th 2023 Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9353BD65-587F-45A3-9E7D-9EC54BFB3207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591E5908-4A6F-44C8-BC32-85440154F984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="98">
   <si>
     <t>Concepts</t>
   </si>
@@ -311,6 +311,15 @@
   </si>
   <si>
     <t>given case study requrements</t>
+  </si>
+  <si>
+    <t>Day-35</t>
+  </si>
+  <si>
+    <t>Layered Architecture</t>
+  </si>
+  <si>
+    <t>9:30Pm-11:00pm</t>
   </si>
 </sst>
 </file>
@@ -761,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1377,10 +1386,18 @@
       <c r="I38" s="3"/>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D39" s="6"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="10"/>
+      <c r="D39" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" s="4">
+        <v>45331</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
     </row>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\OnlineTraining9\Sai\Java Fsd 12 th 2023 Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591E5908-4A6F-44C8-BC32-85440154F984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB81148-42CD-44A6-A4D1-41149DDC3051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="101">
   <si>
     <t>Concepts</t>
   </si>
@@ -320,6 +320,15 @@
   </si>
   <si>
     <t>9:30Pm-11:00pm</t>
+  </si>
+  <si>
+    <t>Day-36</t>
+  </si>
+  <si>
+    <t>Day-37</t>
+  </si>
+  <si>
+    <t>Layered Architecture,multi threading</t>
   </si>
 </sst>
 </file>
@@ -770,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1402,15 +1411,25 @@
       <c r="I39" s="3"/>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D40" s="6"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="10"/>
+      <c r="D40" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" s="4">
+        <v>45335</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D41" s="6"/>
+      <c r="D41" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="E41" s="4"/>
       <c r="F41" s="3"/>
       <c r="G41" s="10"/>
